--- a/pvmismatch/contrib/xlsio/example_workflow/ExcelLayoutFromPVMM_input2.xlsx
+++ b/pvmismatch/contrib/xlsio/example_workflow/ExcelLayoutFromPVMM_input2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CellIndexes" sheetId="1" r:id="rId1"/>
     <sheet name="Irradiance" sheetId="2" r:id="rId2"/>
     <sheet name="CellTemp" sheetId="3" r:id="rId3"/>
-    <sheet name="ActiveBpd" sheetId="4" r:id="rId4"/>
+    <sheet name="BpdAndRbc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -13444,64 +13444,64 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -13509,64 +13509,64 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -13574,64 +13574,64 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -13639,64 +13639,64 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -13704,64 +13704,64 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -13769,64 +13769,64 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -13834,64 +13834,64 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -13899,64 +13899,64 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -13964,64 +13964,64 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -14029,64 +14029,64 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -14150,64 +14150,64 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -14215,64 +14215,64 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -14280,64 +14280,64 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -14345,64 +14345,64 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -14410,64 +14410,64 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -14475,64 +14475,64 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -14540,64 +14540,64 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -14605,64 +14605,64 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -14670,64 +14670,64 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -14735,64 +14735,64 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -14856,64 +14856,64 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -14921,64 +14921,64 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -14986,64 +14986,64 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -15051,64 +15051,64 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -15116,64 +15116,64 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -15181,64 +15181,64 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -15246,64 +15246,64 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -15311,64 +15311,64 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -15376,64 +15376,64 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -15441,64 +15441,64 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -15562,64 +15562,64 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -15627,64 +15627,64 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -15692,64 +15692,64 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -15757,64 +15757,64 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -15822,64 +15822,64 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -15887,64 +15887,64 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -15952,64 +15952,64 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -16017,64 +16017,64 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -16082,64 +16082,64 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -16147,64 +16147,64 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -16268,64 +16268,64 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -16333,64 +16333,64 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -16398,64 +16398,64 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -16463,64 +16463,64 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -16528,64 +16528,64 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -16593,64 +16593,64 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -16658,64 +16658,64 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -16723,64 +16723,64 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -16788,64 +16788,64 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -16853,64 +16853,64 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -16974,64 +16974,64 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -17039,64 +17039,64 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -17104,64 +17104,64 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -17169,64 +17169,64 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -17234,64 +17234,64 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -17299,64 +17299,64 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -17364,64 +17364,64 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -17429,64 +17429,64 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -17494,64 +17494,64 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -17559,64 +17559,64 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17625,8 +17625,10 @@
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FFFFFFFF"/>
         <color rgb="FFFF6347"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF36C1FF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
